--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value819.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value819.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7219396213904957</v>
+        <v>1.484390497207642</v>
       </c>
       <c r="B1">
-        <v>3.894440031675035</v>
+        <v>3.599098205566406</v>
       </c>
       <c r="C1">
-        <v>2.335030615736639</v>
+        <v>2.916921138763428</v>
       </c>
       <c r="D1">
-        <v>1.755572903683823</v>
+        <v>1.370304226875305</v>
       </c>
       <c r="E1">
-        <v>1.554241738738933</v>
+        <v>0.7716301083564758</v>
       </c>
     </row>
   </sheetData>
